--- a/NHL Sports Betting Analysis and Excel Instructions.xlsx
+++ b/NHL Sports Betting Analysis and Excel Instructions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adamshmanske/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E378773-9A3E-7047-8CDB-C42B3CD31679}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D08B60F-43BA-BF4C-9B5A-25D827DE5145}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15280" windowHeight="18000" activeTab="1" xr2:uid="{FBA0DEB0-9B56-A74C-9B12-B00103EDB64F}"/>
+    <workbookView xWindow="13380" yWindow="0" windowWidth="15420" windowHeight="18000" firstSheet="2" activeTab="4" xr2:uid="{FBA0DEB0-9B56-A74C-9B12-B00103EDB64F}"/>
   </bookViews>
   <sheets>
     <sheet name="NHL RAW DATA" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Implied Probability" sheetId="5" r:id="rId3"/>
     <sheet name="Using Win as Y with OH and IP" sheetId="6" r:id="rId4"/>
     <sheet name="Using Win as Y with ONLY IP" sheetId="10" r:id="rId5"/>
-    <sheet name="Directions" sheetId="11" r:id="rId6"/>
+    <sheet name="Excel Directions" sheetId="11" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="123">
   <si>
     <t>Date</t>
   </si>
@@ -405,6 +405,9 @@
   <si>
     <t>Implied odds and true winning percentage estimate lower</t>
   </si>
+  <si>
+    <t>Difference</t>
+  </si>
 </sst>
 </file>
 
@@ -540,7 +543,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -564,6 +567,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="170" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -17456,7 +17460,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2BA2508-C8F1-B946-9722-9AD3DDB4E6DA}">
   <dimension ref="B1:D241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
@@ -23770,7 +23774,7 @@
   <dimension ref="A1:I265"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -26690,13 +26694,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20908CD-4ED2-C747-B2CE-2B7B126157AB}">
   <dimension ref="A1:K264"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <selection activeCell="J37" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -27035,6 +27040,9 @@
       <c r="H30" t="s">
         <v>91</v>
       </c>
+      <c r="I30" t="s">
+        <v>122</v>
+      </c>
       <c r="K30" s="10"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -27057,6 +27065,10 @@
         <f>-0.058863983+(G31*1.040990401)</f>
         <v>-6.8144629500000026E-3</v>
       </c>
+      <c r="I31" s="19">
+        <f>G31-H31</f>
+        <v>5.6814462950000005E-2</v>
+      </c>
       <c r="K31" s="11"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
@@ -27079,8 +27091,12 @@
         <f t="shared" ref="H32:H49" si="0">-0.058863983+(G32*1.040990401)</f>
         <v>4.5235057099999997E-2</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32" s="19">
+        <f t="shared" ref="I32:I49" si="1">G32-H32</f>
+        <v>5.4764942900000009E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="10">
         <v>9</v>
       </c>
@@ -27102,8 +27118,12 @@
         <f t="shared" si="0"/>
         <v>9.7284577149999996E-2</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33" s="19">
+        <f t="shared" si="1"/>
+        <v>5.2715422850000027E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="10">
         <v>10</v>
       </c>
@@ -27114,19 +27134,23 @@
         <v>0.29547102275939496</v>
       </c>
       <c r="F34" s="16">
-        <f t="shared" ref="F34:G49" si="1">F33+0.05</f>
+        <f t="shared" ref="F34:G49" si="2">F33+0.05</f>
         <v>0.2</v>
       </c>
       <c r="G34" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.2</v>
       </c>
       <c r="H34">
         <f t="shared" si="0"/>
         <v>0.14933409719999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34" s="19">
+        <f t="shared" si="1"/>
+        <v>5.0665902800000023E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="10">
         <v>11</v>
       </c>
@@ -27137,19 +27161,23 @@
         <v>0.31529941134900785</v>
       </c>
       <c r="F35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="G35" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
       <c r="H35">
         <f t="shared" si="0"/>
         <v>0.20138361724999998</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35" s="19">
+        <f t="shared" si="1"/>
+        <v>4.861638275000002E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="10">
         <v>12</v>
       </c>
@@ -27160,19 +27188,23 @@
         <v>0.31529941134900785</v>
       </c>
       <c r="F36" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="G36" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="H36">
         <f t="shared" si="0"/>
         <v>0.25343313729999994</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36" s="19">
+        <f t="shared" si="1"/>
+        <v>4.6566862700000045E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="10">
         <v>13</v>
       </c>
@@ -27183,19 +27215,23 @@
         <v>0.31960993060761933</v>
       </c>
       <c r="F37" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
       <c r="G37" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.35</v>
       </c>
       <c r="H37">
         <f t="shared" si="0"/>
         <v>0.30548265734999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37" s="19">
+        <f t="shared" si="1"/>
+        <v>4.4517342650000014E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="10">
         <v>14</v>
       </c>
@@ -27206,19 +27242,23 @@
         <v>0.31960993060761933</v>
       </c>
       <c r="F38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="G38" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.39999999999999997</v>
       </c>
       <c r="H38">
         <f t="shared" si="0"/>
         <v>0.35753217739999993</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38" s="19">
+        <f t="shared" si="1"/>
+        <v>4.2467822600000038E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="10">
         <v>15</v>
       </c>
@@ -27229,19 +27269,23 @@
         <v>0.32404722984442536</v>
       </c>
       <c r="F39" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="G39" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
       <c r="H39">
         <f t="shared" si="0"/>
         <v>0.40958169744999995</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39" s="19">
+        <f t="shared" si="1"/>
+        <v>4.0418302550000007E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="10">
         <v>16</v>
       </c>
@@ -27252,19 +27296,23 @@
         <v>-0.66667478084225318</v>
       </c>
       <c r="F40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="G40" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.49999999999999994</v>
       </c>
       <c r="H40">
         <f t="shared" si="0"/>
         <v>0.46163121749999986</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40" s="19">
+        <f t="shared" si="1"/>
+        <v>3.8368782500000087E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="10">
         <v>17</v>
       </c>
@@ -27275,19 +27323,23 @@
         <v>-0.66667478084225318</v>
       </c>
       <c r="F41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="G41" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.54999999999999993</v>
       </c>
       <c r="H41">
         <f t="shared" si="0"/>
         <v>0.51368073754999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41" s="19">
+        <f t="shared" si="1"/>
+        <v>3.6319262449999945E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="10">
         <v>18</v>
       </c>
@@ -27298,19 +27350,23 @@
         <v>0.33332521915774682</v>
       </c>
       <c r="F42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="G42" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.6</v>
       </c>
       <c r="H42">
         <f t="shared" si="0"/>
         <v>0.56573025759999995</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42" s="19">
+        <f t="shared" si="1"/>
+        <v>3.4269742400000025E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="10">
         <v>19</v>
       </c>
@@ -27321,19 +27377,23 @@
         <v>0.34318308280315113</v>
       </c>
       <c r="F43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="G43" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.65</v>
       </c>
       <c r="H43">
         <f t="shared" si="0"/>
         <v>0.61777977765000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43" s="19">
+        <f t="shared" si="1"/>
+        <v>3.2220222349999994E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="10">
         <v>20</v>
       </c>
@@ -27344,19 +27404,23 @@
         <v>0.34318308280315113</v>
       </c>
       <c r="F44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="G44" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
       <c r="H44">
         <f t="shared" si="0"/>
         <v>0.6698292977000001</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44" s="19">
+        <f t="shared" si="1"/>
+        <v>3.0170702299999963E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="10">
         <v>21</v>
       </c>
@@ -27367,19 +27431,23 @@
         <v>-0.65681691719684887</v>
       </c>
       <c r="F45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="G45" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.75000000000000011</v>
       </c>
       <c r="H45">
         <f t="shared" si="0"/>
         <v>0.72187881775000018</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45" s="19">
+        <f t="shared" si="1"/>
+        <v>2.8121182249999932E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="10">
         <v>22</v>
       </c>
@@ -27401,8 +27469,12 @@
         <f t="shared" si="0"/>
         <v>0.77392833780000014</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46" s="19">
+        <f t="shared" si="1"/>
+        <v>2.6071662200000012E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="10">
         <v>23</v>
       </c>
@@ -27413,19 +27485,23 @@
         <v>-0.65681691719684887</v>
       </c>
       <c r="F47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8500000000000002</v>
       </c>
       <c r="G47" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.8500000000000002</v>
       </c>
       <c r="H47">
         <f t="shared" si="0"/>
         <v>0.82597785785000022</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47" s="19">
+        <f t="shared" si="1"/>
+        <v>2.4022142149999981E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="10">
         <v>24</v>
       </c>
@@ -27436,19 +27512,23 @@
         <v>0.35367693765148456</v>
       </c>
       <c r="F48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
       </c>
       <c r="G48" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.90000000000000024</v>
       </c>
       <c r="H48">
         <f t="shared" si="0"/>
         <v>0.87802737790000029</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48" s="19">
+        <f t="shared" si="1"/>
+        <v>2.197262209999995E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="10">
         <v>25</v>
       </c>
@@ -27459,19 +27539,23 @@
         <v>0.35367693765148456</v>
       </c>
       <c r="F49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95000000000000029</v>
       </c>
       <c r="G49" s="16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0.95000000000000029</v>
       </c>
       <c r="H49">
         <f t="shared" si="0"/>
         <v>0.93007689795000026</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49" s="19">
+        <f t="shared" si="1"/>
+        <v>1.992310205000003E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="10">
         <v>26</v>
       </c>
@@ -27482,7 +27566,7 @@
         <v>-0.64632306234851544</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="10">
         <v>27</v>
       </c>
@@ -27493,7 +27577,7 @@
         <v>0.35367693765148456</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="10">
         <v>28</v>
       </c>
@@ -27504,7 +27588,7 @@
         <v>-0.6351296171769597</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="10">
         <v>29</v>
       </c>
@@ -27515,7 +27599,7 @@
         <v>0.3648703828230403</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="10">
         <v>30</v>
       </c>
@@ -27526,7 +27610,7 @@
         <v>0.3648703828230403</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="10">
         <v>31</v>
       </c>
@@ -27537,7 +27621,7 @@
         <v>0.3648703828230403</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="10">
         <v>32</v>
       </c>
@@ -27548,7 +27632,7 @@
         <v>0.3648703828230403</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="10">
         <v>33</v>
       </c>
@@ -27559,7 +27643,7 @@
         <v>-0.6351296171769597</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="10">
         <v>34</v>
       </c>
@@ -27570,7 +27654,7 @@
         <v>0.3648703828230403</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="10">
         <v>35</v>
       </c>
@@ -27581,7 +27665,7 @@
         <v>0.37683578973056531</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="10">
         <v>36</v>
       </c>
@@ -27592,7 +27676,7 @@
         <v>-0.62316421026943469</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="10">
         <v>37</v>
       </c>
@@ -27603,7 +27687,7 @@
         <v>0.37683578973056531</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="10">
         <v>38</v>
       </c>
@@ -27614,7 +27698,7 @@
         <v>-0.62316421026943469</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" s="10">
         <v>39</v>
       </c>
@@ -27625,7 +27709,7 @@
         <v>-0.61686662768652678</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="10">
         <v>40</v>
       </c>
@@ -29847,7 +29931,7 @@
   <dimension ref="A2:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
